--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10044" tabRatio="599"/>
+    <workbookView windowWidth="21000" windowHeight="8460" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItems" sheetId="1" r:id="rId1"/>
@@ -1413,8 +1413,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1953,7 +1953,9 @@
       <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
       <c r="F21" s="9">
         <v>700</v>
       </c>
@@ -1975,11 +1977,15 @@
       <c r="D22" s="9">
         <v>1</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="9">
+        <v>2</v>
+      </c>
       <c r="F22" s="9">
         <v>800</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9">
+        <v>20</v>
+      </c>
       <c r="H22" s="8">
         <v>1</v>
       </c>
@@ -1995,11 +2001,15 @@
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <v>2</v>
+      </c>
       <c r="F23" s="9">
         <v>400</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9">
+        <v>24</v>
+      </c>
       <c r="H23" s="8">
         <v>1</v>
       </c>
@@ -2015,11 +2025,15 @@
       <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
       <c r="F24" s="9">
         <v>500</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9">
+        <v>25</v>
+      </c>
       <c r="H24" s="8">
         <v>1</v>
       </c>
@@ -2035,11 +2049,15 @@
       <c r="D25" s="9">
         <v>1</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
       <c r="F25" s="9">
         <v>600</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9">
+        <v>26</v>
+      </c>
       <c r="H25" s="8">
         <v>1</v>
       </c>
@@ -2055,11 +2073,15 @@
       <c r="D26" s="8">
         <v>1</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
       <c r="F26" s="9">
         <v>700</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9">
+        <v>27</v>
+      </c>
       <c r="H26" s="8">
         <v>1</v>
       </c>
@@ -2075,11 +2097,15 @@
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9">
+        <v>2</v>
+      </c>
       <c r="F27" s="9">
         <v>800</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9">
+        <v>27</v>
+      </c>
       <c r="H27" s="8">
         <v>1</v>
       </c>
@@ -2095,11 +2121,15 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
       <c r="F28" s="9">
         <v>400</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9">
+        <v>30</v>
+      </c>
       <c r="H28" s="8">
         <v>1</v>
       </c>
@@ -2115,11 +2145,15 @@
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="9">
+        <v>2</v>
+      </c>
       <c r="F29" s="9">
         <v>500</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9">
+        <v>30</v>
+      </c>
       <c r="H29" s="8">
         <v>1</v>
       </c>
@@ -2135,11 +2169,15 @@
       <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
       <c r="F30" s="9">
         <v>600</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9">
+        <v>34</v>
+      </c>
       <c r="H30" s="8">
         <v>1</v>
       </c>
@@ -2155,11 +2193,15 @@
       <c r="D31" s="9">
         <v>1</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9">
+        <v>1</v>
+      </c>
       <c r="F31" s="9">
         <v>700</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9">
+        <v>36</v>
+      </c>
       <c r="H31" s="8">
         <v>1</v>
       </c>
@@ -2175,11 +2217,15 @@
       <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
       <c r="F32" s="9">
         <v>800</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="9">
+        <v>38</v>
+      </c>
       <c r="H32" s="8">
         <v>1</v>
       </c>

--- a/Src/Data/Tables/ShopItemDefine.xlsx
+++ b/Src/Data/Tables/ShopItemDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8460" tabRatio="599"/>
+    <workbookView windowWidth="23040" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="ShopItems" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,6 +882,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,8 +1119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I35" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I35" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I41" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I41" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="16" name="Key2" dataDxfId="1"/>
@@ -1411,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1589,7 +1601,7 @@
       <c r="D7" s="8">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="8">
@@ -1618,9 +1630,7 @@
       <c r="E8" s="8">
         <v>1</v>
       </c>
-      <c r="F8" s="8">
-        <v>18</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8">
         <v>6</v>
       </c>
@@ -1644,9 +1654,7 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
-        <v>200</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="8">
         <v>6</v>
       </c>
@@ -1670,9 +1678,7 @@
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
-        <v>20</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="8">
         <v>8</v>
       </c>
@@ -1752,9 +1758,7 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
-        <v>200</v>
-      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="8">
         <v>10</v>
       </c>
@@ -1806,9 +1810,7 @@
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
-        <v>200</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="8">
         <v>20</v>
       </c>
@@ -1835,9 +1837,7 @@
       <c r="F16" s="9">
         <v>300</v>
       </c>
-      <c r="G16" s="9">
-        <v>16</v>
-      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="8">
         <v>1</v>
       </c>
@@ -1861,9 +1861,7 @@
       <c r="F17" s="9">
         <v>200</v>
       </c>
-      <c r="G17" s="9">
-        <v>25</v>
-      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="8">
         <v>1</v>
       </c>
@@ -1908,9 +1906,7 @@
       <c r="E19" s="9">
         <v>1</v>
       </c>
-      <c r="F19" s="9">
-        <v>500</v>
-      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="9">
         <v>17</v>
       </c>
@@ -1935,9 +1931,7 @@
       <c r="F20" s="9">
         <v>600</v>
       </c>
-      <c r="G20" s="9">
-        <v>17</v>
-      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="8">
         <v>1</v>
       </c>
@@ -1956,9 +1950,7 @@
       <c r="E21" s="9">
         <v>1</v>
       </c>
-      <c r="F21" s="9">
-        <v>700</v>
-      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9">
         <v>18</v>
       </c>
@@ -2028,9 +2020,7 @@
       <c r="E24" s="9">
         <v>1</v>
       </c>
-      <c r="F24" s="9">
-        <v>500</v>
-      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="9">
         <v>25</v>
       </c>
@@ -2055,9 +2045,7 @@
       <c r="F25" s="9">
         <v>600</v>
       </c>
-      <c r="G25" s="9">
-        <v>26</v>
-      </c>
+      <c r="G25" s="9"/>
       <c r="H25" s="8">
         <v>1</v>
       </c>
@@ -2079,9 +2067,7 @@
       <c r="F26" s="9">
         <v>700</v>
       </c>
-      <c r="G26" s="9">
-        <v>27</v>
-      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="8">
         <v>1</v>
       </c>
@@ -2124,9 +2110,7 @@
       <c r="E28" s="9">
         <v>1</v>
       </c>
-      <c r="F28" s="9">
-        <v>400</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9">
         <v>30</v>
       </c>
@@ -2172,9 +2156,7 @@
       <c r="E30" s="9">
         <v>1</v>
       </c>
-      <c r="F30" s="9">
-        <v>600</v>
-      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9">
         <v>34</v>
       </c>
@@ -2196,9 +2178,7 @@
       <c r="E31" s="9">
         <v>1</v>
       </c>
-      <c r="F31" s="9">
-        <v>700</v>
-      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9">
         <v>36</v>
       </c>
@@ -2223,9 +2203,7 @@
       <c r="F32" s="9">
         <v>800</v>
       </c>
-      <c r="G32" s="9">
-        <v>38</v>
-      </c>
+      <c r="G32" s="9"/>
       <c r="H32" s="8">
         <v>1</v>
       </c>
@@ -2244,7 +2222,9 @@
       <c r="D33" s="9">
         <v>1</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
       <c r="F33" s="9">
         <v>1000</v>
       </c>
@@ -2264,9 +2244,11 @@
       <c r="D34" s="9">
         <v>1</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
       <c r="F34" s="9">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="8">
@@ -2284,15 +2266,160 @@
       <c r="D35" s="9">
         <v>1</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
       <c r="F35" s="9">
+        <v>1400</v>
+      </c>
+      <c r="G35" s="9">
         <v>1000</v>
       </c>
-      <c r="G35" s="9"/>
       <c r="H35" s="8">
         <v>1</v>
       </c>
       <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9">
+        <v>8004</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10">
+        <v>1140</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="9">
+        <v>5</v>
+      </c>
+      <c r="C37" s="9">
+        <v>8005</v>
+      </c>
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
+        <v>500</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1300</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="9">
+        <v>6</v>
+      </c>
+      <c r="C38" s="9">
+        <v>8006</v>
+      </c>
+      <c r="D38" s="9">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>600</v>
+      </c>
+      <c r="G38" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12">
+        <v>7</v>
+      </c>
+      <c r="C39" s="12">
+        <v>8007</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="10">
+        <v>1600</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12">
+        <v>8</v>
+      </c>
+      <c r="C40" s="12">
+        <v>8008</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="12">
+        <v>564</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1302</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12">
+        <v>9</v>
+      </c>
+      <c r="C41" s="12">
+        <v>8009</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="10">
+        <v>1500</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
+      <c r="I41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
